--- a/uploads/Term fee dummy.xlsx
+++ b/uploads/Term fee dummy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalak\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\versatile\Desktop\test excel sheet fyproj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="59">
   <si>
     <t>Category Name</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>DU62553144</t>
+  </si>
+  <si>
+    <t>15016070201 3</t>
   </si>
 </sst>
 </file>
@@ -247,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -269,7 +272,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,12 +560,12 @@
   <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1100,8 +1107,8 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="9">
-        <v>150160702013</v>
+      <c r="G6" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="H6" t="s">
         <v>38</v>
@@ -1504,7 +1511,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1524,7 +1531,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1544,7 +1551,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1564,7 +1571,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
